--- a/ResultadoEleicoesDistritos/GUARDA_FORNOS DE ALGODRES.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_FORNOS DE ALGODRES.xlsx
@@ -597,64 +597,64 @@
         <v>1264</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>121</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2" t="n">
+        <v>89</v>
+      </c>
+      <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>135</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="T2" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>795</v>
+        <v>844</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>828</v>
+        <v>774</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
